--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,20 @@
   </si>
   <si>
     <t>完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习Java第5章类和对象
+2.Android基本控件的使用(TextView, EditView, Button, ImageView，ProgressBar等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;第一行代码&gt;或&lt;疯狂Android讲义&gt;
+疯狂Android讲义讲解的控件比较多，先学经常用的就好，其他需要时再学或用空再看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,13 +114,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -408,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -419,9 +441,10 @@
     <col min="1" max="1" width="40.875" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -431,158 +454,191 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7">
+        <v>43198</v>
+      </c>
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,13 +34,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;第一行代码&gt;或&lt;疯狂Android讲义&gt;
+疯狂Android讲义讲解的控件比较多，先学经常用的就好，其他需要时再学或用空再看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.学习Java第5章类和对象
 2.Android基本控件的使用(TextView, EditView, Button, ImageView，ProgressBar等)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;第一行代码&gt;或&lt;疯狂Android讲义&gt;
-疯狂Android讲义讲解的控件比较多，先学经常用的就好，其他需要时再学或用空再看</t>
+    <t>1.Java第6章继承
+2.Android基本布局的使用(
+LinearLayout, RelativeLayout
+,FrameLayout)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行代码中还提到一个百分比布局
+(PercentFrameLayout)
+绝对布局等不常用的就不学了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -127,8 +140,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -433,7 +457,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -460,153 +484,159 @@
     </row>
     <row r="2" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
         <v>43198</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10">
+        <v>43200</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ED854A4F-CC61-46B8-B56F-F20893D9AA67}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,11 +44,19 @@
 疯狂Android讲义讲解的控件比较多，先学经常用的就好，其他需要时再学或用空再看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java：第五章还剩一丢丢，还是把第四章看了下                          Android：看了基本控件了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,11 +119,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -129,6 +149,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -138,6 +164,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -186,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,9 +248,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,6 +300,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,22 +492,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -457,8 +521,11 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -469,176 +536,179 @@
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -651,12 +721,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -664,12 +734,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ED854A4F-CC61-46B8-B56F-F20893D9AA67}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,13 +49,25 @@
   </si>
   <si>
     <t>Java：第五章还剩一丢丢，还是把第四章看了下                          Android：看了基本控件了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Java第6章继承
+2.Android基本布局的使用(
+LinearLayout, RelativeLayout
+,FrameLayout)</t>
+  </si>
+  <si>
+    <t>第一行代码中还提到一个百分比布局
+(PercentFrameLayout)
+绝对布局等不常用的就不学了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,26 +259,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,23 +294,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,23 +469,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,14 +502,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7">
         <v>43198</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="7">
+        <v>43199</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
@@ -540,175 +519,181 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
+        <v>43200</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -721,12 +706,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -734,12 +719,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F14E656C-677E-4908-A446-051BCA7E17F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +46,6 @@
   </si>
   <si>
     <t>情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java：第五章还剩一丢丢，还是把第四章看了下                          Android：看了基本控件了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -63,11 +60,19 @@
 绝对布局等不常用的就不学了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Java：第五章还剩一丢丢，还是把第四章看了下                          Android：看了基本控件了                      （Done 4.10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -164,7 +169,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -226,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,9 +267,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,6 +319,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,23 +511,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -502,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -515,185 +557,188 @@
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="7">
         <v>43200</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -706,12 +751,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -719,12 +764,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F14E656C-677E-4908-A446-051BCA7E17F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,26 +266,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,23 +301,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,23 +476,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,7 +509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -561,14 +526,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
         <v>43200</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="7">
+        <v>43200</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
@@ -576,169 +543,169 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -751,12 +718,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -764,12 +731,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习使用前面的布局和控件，布局中还用到了复选框(CheckBox)。这次记得传一下代码，至少要传布局。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Java第7章接口和内部类
+2.写一个登录界面(界面如:登录界面.png)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +489,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -543,11 +552,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43201</v>
+      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CDBC2354-62DA-4081-AC76-BDD8AD96D307}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,11 +77,15 @@
 2.写一个登录界面(界面如:登录界面.png)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Done（但是内部类有点乱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +280,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,6 +332,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,23 +524,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -535,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -552,7 +591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -563,164 +602,167 @@
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -733,12 +775,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -746,12 +788,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CDBC2354-62DA-4081-AC76-BDD8AD96D307}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,11 +80,20 @@
     <t>Done（但是内部类有点乱）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.Java第8章面向对象编程
+2.Activity的使用(跳转startActivity，有返回结果的跳转startActivityForResult，生命周期，启动模式等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行代码的第二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,26 +288,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,23 +323,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,23 +498,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -557,7 +531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -574,7 +548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -591,14 +565,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="7">
         <v>43201</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="7">
+        <v>43201</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
@@ -606,163 +582,169 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <v>43202</v>
+      </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -775,12 +757,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -788,12 +770,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>第一行代码的第二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Java第9章异常处理
+2.BroadcastReceiver(自定义广播，系统广播，有序广播)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行代码的第五章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -589,16 +598,24 @@
       <c r="B5" s="7">
         <v>43202</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="7">
+        <v>43202</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7">
+        <v>43203</v>
+      </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C4774EA5-B2DE-4680-BF46-5D26B9CE6167}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,11 +99,19 @@
     <t>第一行代码的第五章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java完成了，但是android的还剩一些没看完。（这两天会完成的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,9 +306,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,6 +358,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,23 +550,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,7 +583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -557,7 +600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -574,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -591,7 +634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -604,8 +647,11 @@
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -616,152 +662,155 @@
       <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -774,12 +823,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -787,12 +836,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C4774EA5-B2DE-4680-BF46-5D26B9CE6167}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +90,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java完成了，但是android的还剩一些没看完。（这两天会完成的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.Java第9章异常处理
 2.BroadcastReceiver(自定义广播，系统广播，有序广播)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,18 +107,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java完成了，但是android的还剩一些没看完。（这两天会完成的）</t>
+    <t>1.Java第10章线程
+2.RecyclerView的用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行代码第三章(3.6), 内容不多，可以上网看看别人如何使用RecyclerView或者巩固一下前面的内容。现在基本不用ListView了，都是使用RecyclerView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,26 +314,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,23 +349,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,23 +524,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -600,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -617,7 +591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -634,7 +608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -648,169 +622,175 @@
         <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="B6" s="7">
         <v>43203</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7">
+        <v>43205</v>
+      </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -823,12 +803,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -836,12 +816,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{78DB09DD-2499-4800-92E4-699C9C88C97F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Java完成了，但是android的还剩一些没看完。（这两天会完成的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.Java第9章异常处理
 2.BroadcastReceiver(自定义广播，系统广播，有序广播)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,13 +110,17 @@
   </si>
   <si>
     <t>第一行代码第三章(3.6), 内容不多，可以上网看看别人如何使用RecyclerView或者巩固一下前面的内容。现在基本不用ListView了，都是使用RecyclerView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java完成了，但是android的还剩一些没看完。（这两天会完成的）    (Done 4.15)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,9 +315,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,6 +367,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,23 +559,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -557,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -574,7 +609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -591,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -608,7 +643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -625,172 +660,172 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7">
         <v>43203</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="B7" s="7">
         <v>43205</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -803,12 +838,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -816,12 +851,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{78DB09DD-2499-4800-92E4-699C9C88C97F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,26 +314,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,23 +349,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,23 +524,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -609,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -626,7 +591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -643,7 +608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -660,14 +625,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="7">
         <v>43203</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="7">
+        <v>43205</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
@@ -675,7 +642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -687,145 +654,145 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -838,12 +805,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -851,12 +818,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A239632D-EFF9-4D0D-9627-59CDF6135B01}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,11 +116,15 @@
     <t>Java完成了，但是android的还剩一些没看完。（这两天会完成的）    (Done 4.15)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>今天没完成（反省…）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,7 +286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,9 +319,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,6 +371,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,23 +563,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -557,7 +596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -574,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -591,7 +630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -608,7 +647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -625,7 +664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -642,7 +681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -653,146 +692,149 @@
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -805,12 +847,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -818,12 +860,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A239632D-EFF9-4D0D-9627-59CDF6135B01}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2B89F5F7-E01A-42D5-BCB0-E4594163B5B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天没完成（反省…）</t>
+    <t>今天没完成（反省…）4.16           大体看了下要求的内容，首先关于线程的问题，感觉只是看了，了解了下基本的一些概念，不知道怎么去用==然后Android的recyclerview用法，感觉功能蛮多的啊，开始出现的适配器啥的，网上一搜，就是啪一堆的，所以需要掌握哪些，只要会用这个组件就好了（反正看的是云里雾里的）？（4.17）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
     </row>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2B89F5F7-E01A-42D5-BCB0-E4594163B5B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F455DD3E-A3B4-4A51-A8FF-EFCEF32DA3CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天没完成（反省…）4.16           大体看了下要求的内容，首先关于线程的问题，感觉只是看了，了解了下基本的一些概念，不知道怎么去用==然后Android的recyclerview用法，感觉功能蛮多的啊，开始出现的适配器啥的，网上一搜，就是啪一堆的，所以需要掌握哪些，只要会用这个组件就好了（反正看的是云里雾里的）？（4.17）</t>
+    <t>今天没完成（反省…）4.16           大体看了下要求的内容，首先关于线程的问题，感觉只是看了，了解了下基本的一些概念，不知道怎么去用==然后Android的recyclerview用法，感觉功能蛮多的啊，开始出现的适配器啥的，网上一搜，就是啪一堆的，所以需要掌握哪些，只要会用这个组件就好了（反正看的是云里雾里的）？（4.17）                        重新看了第一行代码的内容，算是了解基本的用法，笔记记在本子上，没有弄到word里面上传                    （4.18）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F455DD3E-A3B4-4A51-A8FF-EFCEF32DA3CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,58 +72,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Done（但是内部类有点乱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Java第8章面向对象编程
+2.Activity的使用(跳转startActivity，有返回结果的跳转startActivityForResult，生命周期，启动模式等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行代码的第二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Java第9章异常处理
+2.BroadcastReceiver(自定义广播，系统广播，有序广播)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行代码的第五章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Java第10章线程
+2.RecyclerView的用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行代码第三章(3.6), 内容不多，可以上网看看别人如何使用RecyclerView或者巩固一下前面的内容。现在基本不用ListView了，都是使用RecyclerView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java完成了，但是android的还剩一些没看完。（这两天会完成的）    (Done 4.15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天没完成（反省…）4.16           大体看了下要求的内容，首先关于线程的问题，感觉只是看了，了解了下基本的一些概念，不知道怎么去用==然后Android的recyclerview用法，感觉功能蛮多的啊，开始出现的适配器啥的，网上一搜，就是啪一堆的，所以需要掌握哪些，只要会用这个组件就好了（反正看的是云里雾里的）？（4.17）                        重新看了第一行代码的内容，算是了解基本的用法，笔记记在本子上，没有弄到word里面上传                    （4.18）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.Java第7章接口和内部类
 2.写一个登录界面(界面如:登录界面.png)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Done（但是内部类有点乱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Java第8章面向对象编程
-2.Activity的使用(跳转startActivity，有返回结果的跳转startActivityForResult，生命周期，启动模式等)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一行代码的第二章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Java第9章异常处理
-2.BroadcastReceiver(自定义广播，系统广播，有序广播)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一行代码的第五章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Java第10章线程
-2.RecyclerView的用法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一行代码第三章(3.6), 内容不多，可以上网看看别人如何使用RecyclerView或者巩固一下前面的内容。现在基本不用ListView了，都是使用RecyclerView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java完成了，但是android的还剩一些没看完。（这两天会完成的）    (Done 4.15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天没完成（反省…）4.16           大体看了下要求的内容，首先关于线程的问题，感觉只是看了，了解了下基本的一些概念，不知道怎么去用==然后Android的recyclerview用法，感觉功能蛮多的啊，开始出现的适配器啥的，网上一搜，就是啪一堆的，所以需要掌握哪些，只要会用这个组件就好了（反正看的是云里雾里的）？（4.17）                        重新看了第一行代码的内容，算是了解基本的用法，笔记记在本子上，没有弄到word里面上传                    （4.18）</t>
+    <t>1.Java另一本书的第10章集合类
+2.使用RecyclerView写一个仿微信列表(界面如:列表.jpg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看另一本Java从入门到精通。
+界面只要关注红色框框部分，就是只关注列表的实现，另外有个黑框圈起来的可以忽略那个部分，也就是每个item大概由四个部分组成(给两天时间)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,26 +328,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,23 +363,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,23 +538,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -596,7 +571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -613,7 +588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -630,9 +605,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B4" s="7">
         <v>43201</v>
@@ -644,12 +619,12 @@
         <v>11</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="B5" s="7">
         <v>43202</v>
@@ -658,15 +633,15 @@
         <v>43202</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="B6" s="7">
         <v>43203</v>
@@ -675,166 +650,174 @@
         <v>43205</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="B7" s="7">
         <v>43205</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="7">
+        <v>43208</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7">
+        <v>43210</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -847,12 +830,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -860,12 +843,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1A624FAD-6B52-4023-8AE8-D36EC3652683}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,11 +130,15 @@
 界面只要关注红色框框部分，就是只关注列表的实现，另外有个黑框圈起来的可以忽略那个部分，也就是每个item大概由四个部分组成(给两天时间)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Android部分已经完成（后面加了分割线，还给图片加了边框）         Java就是了解有哪些集合类，下面有哪些接口，接口下面有哪些方法    （4.20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,9 +333,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +385,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,23 +577,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -588,7 +627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -605,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -622,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -639,7 +678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -656,7 +695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -673,7 +712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -684,140 +723,143 @@
       <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E8" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -830,12 +872,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -843,12 +885,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1A624FAD-6B52-4023-8AE8-D36EC3652683}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,24 +120,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>看另一本Java从入门到精通。
+界面只要关注红色框框部分，就是只关注列表的实现，另外有个黑框圈起来的可以忽略那个部分，也就是每个item大概由四个部分组成(给两天时间)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android部分已经完成（后面加了分割线，还给图片加了边框）         Java就是了解有哪些集合类，下面有哪些接口，接口下面有哪些方法    （4.20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.Java另一本书的第10章集合类
 2.使用RecyclerView写一个仿微信列表(界面如:列表.jpg)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看另一本Java从入门到精通。
-界面只要关注红色框框部分，就是只关注列表的实现，另外有个黑框圈起来的可以忽略那个部分，也就是每个item大概由四个部分组成(给两天时间)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android部分已经完成（后面加了分割线，还给图片加了边框）         Java就是了解有哪些集合类，下面有哪些接口，接口下面有哪些方法    （4.20）</t>
+    <t>第一行代码的第10章
+要弄清楚什么时候用startService,什么使用bindService。bindService还是比较复杂的，所以要注意记录步骤，否则又乱了。
+这章就有很多跟线程有关的东西了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Java另一本书的第12章输入/输出
+2.Handler, AsyncTask的使用
+3.Service的用法(startService和bindService,生命周期)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -300,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,26 +344,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,23 +379,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,23 +554,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -610,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -627,7 +604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -644,7 +621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -661,7 +638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -678,7 +655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -695,7 +672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -712,154 +689,160 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7">
         <v>43210</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43215</v>
+      </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -872,12 +855,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -885,12 +868,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A09B2BBB-8B5B-4BD2-9D3D-D94A46FAEBF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,9 +345,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,6 +397,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -554,23 +589,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -604,7 +639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -621,7 +656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -638,7 +673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -655,7 +690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -672,7 +707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -689,7 +724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -704,7 +739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -715,134 +750,137 @@
       <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -855,12 +893,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -868,12 +906,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A09B2BBB-8B5B-4BD2-9D3D-D94A46FAEBF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,12 +145,49 @@
 3.Service的用法(startService和bindService,生命周期)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>第一行代码的第6章
+学习SQL语句可以到http://www.runoob.com/sql/sql-select.html
+学习基础教程的就好，高级的暂时不需要。至少要掌握</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建表，增，删，改，查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">等五种操作(Android中基本就用到这些)
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Java另一本书的第16章网络通信
+2.学习一下基本的SQL语句
+3. Android数据存储(SharedPreferences, SQLite)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +212,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -312,7 +356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,26 +389,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,23 +424,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,23 +599,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -639,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -656,7 +666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -673,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -690,7 +700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -707,7 +717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -724,7 +734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -739,7 +749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -754,133 +764,139 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43215</v>
+      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -893,12 +909,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -906,12 +922,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -741,7 +741,9 @@
       <c r="B8" s="7">
         <v>43210</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="7">
+        <v>43210</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
@@ -756,7 +758,9 @@
       <c r="B9" s="7">
         <v>43215</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="7">
+        <v>43215</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
@@ -769,7 +773,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="7">
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CE954169-DE34-4586-A26B-2CB3E58B4A19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,11 +183,15 @@
 3. Android数据存储(SharedPreferences, SQLite)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Done                                               SQL主要就了解了第一行代码里面那几种操作的写法（Android下），这样ok？需要掌握后面提到的SQL语句的写法么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,9 +394,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,6 +446,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,23 +638,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,7 +671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -649,7 +688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -666,7 +705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -683,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -700,7 +739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -717,7 +756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -734,7 +773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -751,7 +790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -768,7 +807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -779,128 +818,131 @@
       <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -913,12 +955,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -926,12 +968,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CE954169-DE34-4586-A26B-2CB3E58B4A19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,15 +183,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Done                                               SQL主要就了解了第一行代码里面那几种操作的写法（Android下），这样ok？需要掌握后面提到的SQL语句的写法么？</t>
+    <r>
+      <t xml:space="preserve">Done                                               SQL主要就了解了第一行代码里面那几种操作的写法（Android下），这样ok？需要掌握后面提到的SQL语句的写法么？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要掌握SQL语句,两种方式都要，SQL语句只要求最基本的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.内容提供者(ContentProvider,ContentResolver)
+2.掌握Linux文件和目录操作的基本命令(pwd, cd, ls, cat, head, tail, grep, chmod, cp, mv, mkdir, rm)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第一行代码第7章
+之前给的学习计划中有一份Linux系统常用命令快速入门.pdf，命令的学习先从那里面的开始(命令多用才能记住，不需要去背，命令中的参数有需要时再去查)。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一定要多练习，多敲</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +261,14 @@
     </font>
     <font>
       <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -361,7 +406,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,26 +439,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,23 +474,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,23 +649,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -671,7 +682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -688,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -705,7 +716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -722,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -739,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -756,7 +767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -773,7 +784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -790,7 +801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -807,14 +818,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="7">
         <v>43217</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="7">
+        <v>43217</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
@@ -822,127 +835,133 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+    <row r="11" spans="1:5" ht="247.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="7">
+        <v>43222</v>
+      </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -955,12 +974,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -968,12 +987,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,7 +209,7 @@
   <si>
     <r>
       <t>第一行代码第7章
-之前给的学习计划中有一份Linux系统常用命令快速入门.pdf，命令的学习先从那里面的开始(命令多用才能记住，不需要去背，命令中的参数有需要时再去查)。</t>
+命令学习到http://www.runoob.com/linux/linux-command-manual.html(命令多用才能记住，不需要去背，命令中的参数有需要时再去查)。</t>
     </r>
     <r>
       <rPr>
@@ -222,6 +222,16 @@
       </rPr>
       <t>一定要多练习，多敲</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行代码第9章
+命令还是那个网站，如果网站上没有的再上网自己查用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.网络编程(WebView, Http, XML,Json)
+2.Linux命令(tar, dd, fdisk, mount, free, netstat, ping, kill, ps，df)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,7 +845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="247.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -847,11 +857,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7">
+        <v>43224</v>
+      </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C36369F-5738-4739-9297-1151330AC24B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,11 +235,15 @@
 2.Linux命令(tar, dd, fdisk, mount, free, netstat, ping, kill, ps，df)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,9 +454,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,6 +506,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,23 +698,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -709,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -726,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -743,7 +782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -760,7 +799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -777,7 +816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -794,7 +833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -811,7 +850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -828,7 +867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -845,7 +884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -856,8 +895,11 @@
       <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="E11" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -869,115 +911,115 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -990,12 +1032,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1003,12 +1045,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C36369F-5738-4739-9297-1151330AC24B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,7 +242,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,26 +453,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,23 +488,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -698,23 +663,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -731,7 +696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -748,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -765,7 +730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -782,7 +747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -799,7 +764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -816,7 +781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -833,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -850,7 +815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -867,7 +832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -884,14 +849,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="7">
         <v>43222</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="7">
+        <v>43222</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
@@ -899,7 +866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -911,115 +878,115 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1032,12 +999,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1045,12 +1012,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D31C2F0-2A17-46DD-91B4-0E2075AC124F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,11 +239,15 @@
     <t>Done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,7 +425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,9 +458,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,6 +510,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,23 +702,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -713,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -730,7 +769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -747,7 +786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -764,7 +803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -781,7 +820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -798,7 +837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -815,7 +854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -832,7 +871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -849,7 +888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -866,7 +905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -877,116 +916,119 @@
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E12" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -999,12 +1041,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1012,12 +1054,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D31C2F0-2A17-46DD-91B4-0E2075AC124F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,11 +242,22 @@
     <t>Done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">1. Fragment的使用(静态添加(定义在xml中)，动态添加，与Activity间的通信，生命周期)
+2. Linux命令(find, file, touch, ifconfig, clear, export, reboot(重启命令)，sudo. exit)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行代码第4章，Fragment使用的步骤要记录好。
+Shell的基本命令就到这，后面学shell脚本时有碰到新的命令再学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,26 +468,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,23 +503,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,23 +678,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -735,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -752,7 +728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -769,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -786,7 +762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -803,7 +779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -820,7 +796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -837,7 +813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -854,7 +830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -871,7 +847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -888,7 +864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -905,14 +881,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="7">
         <v>43224</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="7">
+        <v>43223</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
@@ -920,115 +898,121 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+    <row r="13" spans="1:5" ht="202.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7">
+        <v>43225</v>
+      </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1041,12 +1025,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1054,12 +1038,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A006C4E8-CF93-4203-B80E-B59A59BD3548}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,11 +254,15 @@
 Shell的基本命令就到这，后面学shell脚本时有碰到新的命令再学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>那些单独分开的小点，可以看得懂，但是第一行代码里面的那个例子，理解得有点懵逼~差不多算完成的吧。我再去看看别人博客理解下…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,7 +440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,9 +473,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,6 +525,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -678,23 +717,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -711,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -728,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -745,7 +784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -762,7 +801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -779,7 +818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -796,7 +835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -813,7 +852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -830,7 +869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -847,7 +886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -864,7 +903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -881,7 +920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -898,7 +937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="202.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="230.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -909,110 +948,113 @@
       <c r="D13" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1025,12 +1067,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,12 +1080,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A006C4E8-CF93-4203-B80E-B59A59BD3548}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,11 +257,22 @@
     <t>那些单独分开的小点，可以看得懂，但是第一行代码里面的那个例子，理解得有点懵逼~差不多算完成的吧。我再去看看别人博客理解下…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.MaterialDesign的控件使用
+2.shell脚本学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行代码第12章，这一章很重要，基本上以后的项目都会用到上面的UI控件(目前github上面的项目基本都有用到这里面的控件)
+shell脚本的学习(网站：http://www.runoob.com/linux/linux-shell.html)
+先学习这个网站上的教程，先入门，内容不多。入门后再开始看&lt;&lt;Linux命令行与shell脚本编程大全&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,7 +450,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,26 +483,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,23 +518,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,23 +693,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -767,7 +743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -784,7 +760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -801,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -818,7 +794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -835,7 +811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -852,7 +828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -869,7 +845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -886,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -903,7 +879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -920,7 +896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -937,14 +913,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="230.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="230.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="7">
         <v>43225</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="7">
+        <v>43227</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>38</v>
       </c>
@@ -952,109 +930,115 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+    <row r="14" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="7">
+        <v>43231</v>
+      </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1067,12 +1051,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1080,12 +1064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{565BC745-EBB5-4AFA-A951-061515D90CDC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,11 +269,15 @@
 先学习这个网站上的教程，先入门，内容不多。入门后再开始看&lt;&lt;Linux命令行与shell脚本编程大全&gt;&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>关于MaterialDesign 的用法，就是按照第一行代码里面的用法，去看了             Shell的基础，就是网页里的那些教程（有几个小问题）            注：笔记有点乱，看不懂的话，不要嫌弃…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,9 +488,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,6 +540,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -693,23 +732,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -726,7 +765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -743,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -760,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -777,7 +816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -794,7 +833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -811,7 +850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -828,7 +867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -845,7 +884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -862,7 +901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -879,7 +918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -896,7 +935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -913,7 +952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="230.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="230.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -930,7 +969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -941,104 +980,107 @@
       <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E14" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1051,12 +1093,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1064,12 +1106,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{565BC745-EBB5-4AFA-A951-061515D90CDC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,11 +272,22 @@
     <t>关于MaterialDesign 的用法，就是按照第一行代码里面的用法，去看了             Shell的基础，就是网页里的那些教程（有几个小问题）            注：笔记有点乱，看不懂的话，不要嫌弃…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">1.Android多媒体(Notification,MediaPlayer,VideoView)
+2.温习shell脚本(全面学习)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.第一行代码第8章
+2.Linux命令行与shell脚本编程大全(第11章)，这里面要是有看不懂的要及时跟我说，或者随时提问题到word中，不用每次等到结束时才提。这本书是比较全面的，怕你看着难受。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,7 +465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,26 +498,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,23 +533,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -732,23 +708,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,7 +741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -782,7 +758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -799,7 +775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -816,7 +792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -833,7 +809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -850,7 +826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -867,7 +843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -884,7 +860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -901,7 +877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -918,7 +894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -935,7 +911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -952,7 +928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="230.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="230.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -969,14 +945,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="7">
         <v>43231</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="7">
+        <v>43236</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
@@ -984,103 +962,109 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+    <row r="15" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="7">
+        <v>43241</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1093,12 +1077,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1106,12 +1090,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8B1B4B5E-C578-46F1-AF49-3C167CD585E7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,11 +284,15 @@
 2.Linux命令行与shell脚本编程大全(第11章)，这里面要是有看不懂的要及时跟我说，或者随时提问题到word中，不用每次等到结束时才提。这本书是比较全面的，怕你看着难受。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Android部分已经完成              shell脚本还没</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,7 +470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,9 +503,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,6 +555,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,23 +747,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -741,7 +780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -758,7 +797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -775,7 +814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -792,7 +831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -809,7 +848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -826,7 +865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -843,7 +882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -860,7 +899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -877,7 +916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -894,7 +933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -911,7 +950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -928,7 +967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="230.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="230.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -945,7 +984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -962,7 +1001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="300" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -973,98 +1012,101 @@
       <c r="D15" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E15" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1077,12 +1119,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1090,12 +1132,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8B1B4B5E-C578-46F1-AF49-3C167CD585E7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,11 +287,20 @@
     <t>Android部分已经完成              shell脚本还没</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">1.Android应用资源学习(res目录下)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂Android讲义第6章(疯狂Android比较杂，以后可以当成"字典"来查)，系统学一下res目录下的文件编写及存放目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,7 +478,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,26 +511,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,23 +546,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -747,23 +721,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -780,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -797,7 +771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -814,7 +788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -831,7 +805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -848,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -865,7 +839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -882,7 +856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -899,7 +873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -916,7 +890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -933,7 +907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -950,7 +924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -967,7 +941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="230.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="230.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -984,7 +958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -1001,14 +975,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="300" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="300" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="7">
         <v>43241</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="7">
+        <v>43242</v>
+      </c>
       <c r="D15" s="4" t="s">
         <v>44</v>
       </c>
@@ -1016,97 +992,103 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+    <row r="16" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="7">
+        <v>43247</v>
+      </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1119,12 +1101,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1132,12 +1114,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E7A8C07-6F2A-4C62-AA88-11EBB2D9A9CF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,11 +297,15 @@
     <t>疯狂Android讲义第6章(疯狂Android比较杂，以后可以当成"字典"来查)，系统学一下res目录下的文件编写及存放目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>就是平常项目中用到的那些文件夹，着重了解下么？感觉上面写的好乱，网上看了一些介绍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,7 +483,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,9 +516,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,6 +568,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -721,23 +760,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -754,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -771,7 +810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -788,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -805,7 +844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -822,7 +861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -839,7 +878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -856,7 +895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -873,7 +912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -890,7 +929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -907,7 +946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -924,7 +963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -941,7 +980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="230.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="230.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -958,7 +997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -975,7 +1014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="300" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -992,7 +1031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="181" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -1003,92 +1042,95 @@
       <c r="D16" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E16" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1101,12 +1143,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1114,12 +1156,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E7A8C07-6F2A-4C62-AA88-11EBB2D9A9CF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,12 +300,22 @@
     <t>就是平常项目中用到的那些文件夹，着重了解下么？感觉上面写的好乱，网上看了一些介绍。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.shell脚本练习
+2.Android文件管理器项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求在当前目录下
+文件管理器先想好要怎么做(需要哪些控件)，需要哪些功能，提供的UI只是参考(有些东西会拿掉，不会完全一样)，有问题可以找我讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,7 +450,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -483,7 +492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,27 +524,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,24 +558,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -760,23 +733,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="40.90625" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="22.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -793,7 +766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="157.5">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -810,7 +783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="135">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -827,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="135">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -844,7 +817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="135">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -861,7 +834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="67.5">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -878,7 +851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="180">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -895,7 +868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="225">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -912,7 +885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="279" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -929,7 +902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="270">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -946,7 +919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="253" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="225">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -963,7 +936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="135">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -980,7 +953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="230.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="230.45" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -997,7 +970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="405">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -1014,7 +987,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="300" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="300" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -1031,14 +1004,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="181" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="180.95" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="7">
         <v>43247</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="7">
+        <v>43256</v>
+      </c>
       <c r="D16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1046,91 +1021,97 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+    <row r="17" spans="1:4" ht="202.5">
+      <c r="A17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="7">
+        <v>43286</v>
+      </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="22.5">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="22.5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="22.5">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="22.5">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="22.5">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="22.5">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="22.5">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="22.5">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="22.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="22.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="22.5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="22.5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="22.5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="22.5">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="22.5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1143,12 +1124,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1156,12 +1137,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F4FF8F85-F1A5-4A20-B77D-D67CBB40EDDB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,12 +311,16 @@
 文件管理器先想好要怎么做(需要哪些控件)，需要哪些功能，提供的UI只是参考(有些东西会拿掉，不会完全一样)，有问题可以找我讨论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>shell练习（有空格存在）          android项目完成基本ui设计，目前正在研究文件列表显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,7 +455,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -492,7 +497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,9 +529,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,6 +581,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -733,23 +774,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,7 +807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="157.5">
+    <row r="2" spans="1:5" ht="161" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -783,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135">
+    <row r="3" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -800,7 +841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135">
+    <row r="4" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -817,7 +858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135">
+    <row r="5" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -834,7 +875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="67.5">
+    <row r="6" spans="1:5" ht="92" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -851,7 +892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="180">
+    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -868,7 +909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="225">
+    <row r="8" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -885,7 +926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="279" customHeight="1">
+    <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -902,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="270">
+    <row r="10" spans="1:5" ht="299" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -919,7 +960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="225">
+    <row r="11" spans="1:5" ht="253" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -936,7 +977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="135">
+    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -953,7 +994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="230.45" customHeight="1">
+    <row r="13" spans="1:5" ht="230.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -970,7 +1011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="405">
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -987,7 +1028,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="300" customHeight="1">
+    <row r="15" spans="1:5" ht="300" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -1004,7 +1045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="180.95" customHeight="1">
+    <row r="16" spans="1:5" ht="181" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -1021,7 +1062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="202.5">
+    <row r="17" spans="1:5" ht="207" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
@@ -1032,86 +1073,89 @@
       <c r="D17" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="22.5">
+      <c r="E17" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5">
+    <row r="19" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5">
+    <row r="20" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="22.5">
+    <row r="21" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5">
+    <row r="22" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5">
+    <row r="23" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5">
+    <row r="24" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5">
+    <row r="25" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5">
+    <row r="26" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5">
+    <row r="27" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5">
+    <row r="28" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5">
+    <row r="29" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5">
+    <row r="30" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5">
+    <row r="31" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="22.5">
+    <row r="32" spans="1:5" ht="23" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1124,12 +1168,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1137,12 +1181,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F4FF8F85-F1A5-4A20-B77D-D67CBB40EDDB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E6BA22EF-12E0-4604-917D-C5C826E4EA56}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,7 +312,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shell练习（有空格存在）          android项目完成基本ui设计，目前正在研究文件列表显示</t>
+    <t>shell练习（有空格存在）          android项目完成基本ui设计，目前正在研究文件列表显示           7.2 列表一直会出现闪退，不知道为什么？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +778,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
